--- a/df_2/df_2_7.xlsx
+++ b/df_2/df_2_7.xlsx
@@ -641,347 +641,347 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4.2062 %</t>
+          <t>4,2062</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.0371 %</t>
+          <t>1,0371</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.9749 %</t>
+          <t>0,9749</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.4558 %</t>
+          <t>0,4558</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.5608 %</t>
+          <t>1,5608</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.4537 %</t>
+          <t>1,4537</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.5322 %</t>
+          <t>0,5322</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.5997 %</t>
+          <t>0,5997</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1.0827 %</t>
+          <t>1,0827</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>1.4121 %</t>
+          <t>1,4121</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>1.1963 %</t>
+          <t>1,1963</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>1.818 %</t>
+          <t>1,818</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>1.1209 %</t>
+          <t>1,1209</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>0.4384 %</t>
+          <t>0,4384</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.5172 %</t>
+          <t>0,5172</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.8306 %</t>
+          <t>0,8306</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>1.04 %</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0.4739 %</t>
+          <t>0,4739</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>0.7455 %</t>
+          <t>0,7455</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>0.7156 %</t>
+          <t>0,7156</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>0.7039 %</t>
+          <t>0,7039</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>0.6211 %</t>
+          <t>0,6211</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>0.5653 %</t>
+          <t>0,5653</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>0.5939 %</t>
+          <t>0,5939</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>0.7787 %</t>
+          <t>0,7787</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>0.7517 %</t>
+          <t>0,7517</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>0.9035 %</t>
+          <t>0,9035</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>0.7045 %</t>
+          <t>0,7045</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>0.8845 %</t>
+          <t>0,8845</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>0.8897 %</t>
+          <t>0,8897</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>0.5503 %</t>
+          <t>0,5503</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>1.0389 %</t>
+          <t>1,0389</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>0.7618 %</t>
+          <t>0,7618</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>0.6487 %</t>
+          <t>0,6487</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>0.8468 %</t>
+          <t>0,8468</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>0.7428 %</t>
+          <t>0,7428</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>1.1257 %</t>
+          <t>1,1257</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>1.0831 %</t>
+          <t>1,0831</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>1.2606 %</t>
+          <t>1,2606</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>0.9193 %</t>
+          <t>0,9193</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>0.6344 %</t>
+          <t>0,6344</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>0.8469 %</t>
+          <t>0,8469</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>0.8738 %</t>
+          <t>0,8738</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>0.8789 %</t>
+          <t>0,8789</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr">
         <is>
-          <t>0.8466 %</t>
+          <t>0,8466</t>
         </is>
       </c>
       <c r="AU2" t="inlineStr">
         <is>
-          <t>0.8431 %</t>
+          <t>0,8431</t>
         </is>
       </c>
       <c r="AV2" t="inlineStr">
         <is>
-          <t>0.8472 %</t>
+          <t>0,8472</t>
         </is>
       </c>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>0.604 %</t>
+          <t>0,604</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>0.851 %</t>
+          <t>0,851</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr">
         <is>
-          <t>0.8794 %</t>
+          <t>0,8794</t>
         </is>
       </c>
       <c r="AZ2" t="inlineStr">
         <is>
-          <t>0.7834 %</t>
+          <t>0,7834</t>
         </is>
       </c>
       <c r="BA2" t="inlineStr">
         <is>
-          <t>0.8382 %</t>
+          <t>0,8382</t>
         </is>
       </c>
       <c r="BB2" t="inlineStr">
         <is>
-          <t>0.9902 %</t>
+          <t>0,9902</t>
         </is>
       </c>
       <c r="BC2" t="inlineStr">
         <is>
-          <t>0.542 %</t>
+          <t>0,542</t>
         </is>
       </c>
       <c r="BD2" t="inlineStr">
         <is>
-          <t>0.775 %</t>
+          <t>0,775</t>
         </is>
       </c>
       <c r="BE2" t="inlineStr">
         <is>
-          <t>1.1358 %</t>
+          <t>1,1358</t>
         </is>
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>0.6565 %</t>
+          <t>0,6565</t>
         </is>
       </c>
       <c r="BG2" t="inlineStr">
         <is>
-          <t>0.634 %</t>
+          <t>0,634</t>
         </is>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>0.8821 %</t>
+          <t>0,8821</t>
         </is>
       </c>
       <c r="BI2" t="inlineStr">
         <is>
-          <t>1.0737 %</t>
+          <t>1,0737</t>
         </is>
       </c>
       <c r="BJ2" t="inlineStr">
         <is>
-          <t>1.0406 %</t>
+          <t>1,0406</t>
         </is>
       </c>
       <c r="BK2" t="inlineStr">
         <is>
-          <t>0.8467 %</t>
+          <t>0,8467</t>
         </is>
       </c>
       <c r="BL2" t="inlineStr">
         <is>
-          <t>0.608 %</t>
+          <t>0,608</t>
         </is>
       </c>
       <c r="BM2" t="inlineStr">
         <is>
-          <t>0.7247 %</t>
+          <t>0,7247</t>
         </is>
       </c>
       <c r="BN2" t="inlineStr">
         <is>
-          <t>0.9553 %</t>
+          <t>0,9553</t>
         </is>
       </c>
       <c r="BO2" t="inlineStr">
         <is>
-          <t>0.7483 %</t>
+          <t>0,7483</t>
         </is>
       </c>
       <c r="BP2" t="inlineStr">
         <is>
-          <t>0.5032 %</t>
+          <t>0,5032</t>
         </is>
       </c>
       <c r="BQ2" t="inlineStr">
         <is>
-          <t>0.8555 %</t>
+          <t>0,8555</t>
         </is>
       </c>
       <c r="BR2" t="inlineStr">
         <is>
-          <t>0.9649 %</t>
+          <t>0,9649</t>
         </is>
       </c>
     </row>
@@ -993,222 +993,222 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2.4587 %</t>
+          <t>2,4587</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.6515 %</t>
+          <t>0,6515</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.5616 %</t>
+          <t>0,5616</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.5604 %</t>
+          <t>0,5604</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.7729 %</t>
+          <t>0,7729</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.6015 %</t>
+          <t>0,6015</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.8478 %</t>
+          <t>0,8478</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.8402 %</t>
+          <t>0,8402</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.958 %</t>
+          <t>0,958</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.8936 %</t>
+          <t>0,8936</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.9248 %</t>
+          <t>0,9248</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0.8855 %</t>
+          <t>0,8855</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0.9999 %</t>
+          <t>0,9999</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>0.811 %</t>
+          <t>0,811</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1.628 %</t>
+          <t>1,628</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>1.0268 %</t>
+          <t>1,0268</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.9651 %</t>
+          <t>0,9651</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>1.3274 %</t>
+          <t>1,3274</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>1.5598 %</t>
+          <t>1,5598</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>1.4659 %</t>
+          <t>1,4659</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>1.3082 %</t>
+          <t>1,3082</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>1.6069 %</t>
+          <t>1,6069</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>1.3979 %</t>
+          <t>1,3979</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>1.6454 %</t>
+          <t>1,6454</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>0.9104 %</t>
+          <t>0,9104</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>1.319 %</t>
+          <t>1,319</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>1.0781 %</t>
+          <t>1,0781</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>1.0089 %</t>
+          <t>1,0089</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>0.744 %</t>
+          <t>0,744</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>0.9523 %</t>
+          <t>0,9523</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>0.9158 %</t>
+          <t>0,9158</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>0.4618 %</t>
+          <t>0,4618</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>0.7643 %</t>
+          <t>0,7643</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>0.5315 %</t>
+          <t>0,5315</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>0.3801 %</t>
+          <t>0,3801</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>0.6443 %</t>
+          <t>0,6443</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>0.5387 %</t>
+          <t>0,5387</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>0.3446 %</t>
+          <t>0,3446</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>0.5241 %</t>
+          <t>0,5241</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>0.3712 %</t>
+          <t>0,3712</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>0.2779 %</t>
+          <t>0,2779</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>0.3118 %</t>
+          <t>0,3118</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>0.2888 %</t>
+          <t>0,2888</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>0.4987 %</t>
+          <t>0,4987</t>
         </is>
       </c>
     </row>
@@ -1220,242 +1220,242 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2.6509 %</t>
+          <t>2,6509</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.5501 %</t>
+          <t>1,5501</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.3259 %</t>
+          <t>2,3259</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.3359 %</t>
+          <t>2,3359</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.7679 %</t>
+          <t>2,7679</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3.9277 %</t>
+          <t>3,9277</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>4.7435 %</t>
+          <t>4,7435</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2.9844 %</t>
+          <t>2,9844</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2.357 %</t>
+          <t>2,357</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>1.8895 %</t>
+          <t>1,8895</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>1.6834 %</t>
+          <t>1,6834</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>1.5262 %</t>
+          <t>1,5262</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1.39 %</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1.3401 %</t>
+          <t>1,3401</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1.3041 %</t>
+          <t>1,3041</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>1.3239 %</t>
+          <t>1,3239</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>1.3329 %</t>
+          <t>1,3329</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>1.2107 %</t>
+          <t>1,2107</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>1.04 %</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>0.8685 %</t>
+          <t>0,8685</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>0.8688 %</t>
+          <t>0,8688</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>0.4791 %</t>
+          <t>0,4791</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>0.4804 %</t>
+          <t>0,4804</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>0.4621 %</t>
+          <t>0,4621</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>0.5078 %</t>
+          <t>0,5078</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>0.5847 %</t>
+          <t>0,5847</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>0.5954 %</t>
+          <t>0,5954</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>0.6264 %</t>
+          <t>0,6264</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>0.5447 %</t>
+          <t>0,5447</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>0.6706 %</t>
+          <t>0,6706</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>0.7877 %</t>
+          <t>0,7877</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>0.8247 %</t>
+          <t>0,8247</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>0.6859 %</t>
+          <t>0,6859</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>0.701 %</t>
+          <t>0,701</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>0.5222 %</t>
+          <t>0,5222</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>0.4115 %</t>
+          <t>0,4115</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>0.4865 %</t>
+          <t>0,4865</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>0.5288 %</t>
+          <t>0,5288</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>0.5109 %</t>
+          <t>0,5109</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>0.4936 %</t>
+          <t>0,4936</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>0.6196 %</t>
+          <t>0,6196</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>0.8006 %</t>
+          <t>0,8006</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>0.8845 %</t>
+          <t>0,8845</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>0.8004 %</t>
+          <t>0,8004</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr">
         <is>
-          <t>0.4404 %</t>
+          <t>0,4404</t>
         </is>
       </c>
       <c r="AU4" t="inlineStr">
         <is>
-          <t>0.3252 %</t>
+          <t>0,3252</t>
         </is>
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>0.4011 %</t>
+          <t>0,4011</t>
         </is>
       </c>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>1.2098 %</t>
+          <t>1,2098</t>
         </is>
       </c>
     </row>
